--- a/correos.xlsx
+++ b/correos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0B18C1-7B8D-4C24-AC45-E6C235633699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A837D47F-B8D4-4A7D-85A6-715FF7397DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Correo</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>ContrasenaNormal</t>
+  </si>
+  <si>
+    <t>midomi@midomi.com</t>
+  </si>
+  <si>
+    <t>mail.privateemail.com (solo si el correo no tieene privateemail.com)</t>
   </si>
 </sst>
 </file>
@@ -112,7 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,6 +135,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -407,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,11 +498,23 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" display="mailto:usuario@yahoo.com" xr:uid="{F00E8AAF-AEC5-4AD7-A5EB-3EE753FBE618}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{6FAD8878-5C74-4495-88B9-F5BA976CC0F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/correos.xlsx
+++ b/correos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A837D47F-B8D4-4A7D-85A6-715FF7397DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A2BDB0-93B3-49A2-BB08-2138ED0D40C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Correo</t>
-  </si>
-  <si>
-    <t>donmarcial459@gmail.com</t>
-  </si>
-  <si>
-    <t>owhq cdou uoqo yagx</t>
   </si>
   <si>
     <t>IMAP</t>
@@ -420,7 +414,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,77 +430,71 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
